--- a/ejemplos/modelos_arbol_individual-masas_mixtas/PpinasterQilex_IFN_3_parcelas.xlsx
+++ b/ejemplos/modelos_arbol_individual-masas_mixtas/PpinasterQilex_IFN_3_parcelas.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,70 +371,75 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Provincia</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ID_sp1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>ID_sp2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Anho</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Edad</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Densidad</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Area_basimetrica</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Altura_dominante</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Longitud</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Latitud</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2001_2020</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2021_2040</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2041_2060</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2061_2080</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2081_2100</t>
         </is>
@@ -452,39 +457,42 @@
         </is>
       </c>
       <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
         <v>26</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>45</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>70.73553026306459</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5.5964</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>8.100000000000001</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-5.498088403156165</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>40.08267106386551</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>15.79631395980089</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>14.88116994044722</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>13.90687363379546</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>13.55677559553524</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>12.85714284150315</v>
       </c>
     </row>
@@ -500,39 +508,42 @@
         </is>
       </c>
       <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
         <v>26</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>45</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>36.92394679731972</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.17658125</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5.758620689655173</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-5.474652937789235</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>40.08317439062649</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>15.79631395980089</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>14.74552952093388</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>13.77224203962361</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>13.42414149556316</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>12.72494664334561</v>
       </c>
     </row>
@@ -548,39 +559,42 @@
         </is>
       </c>
       <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
         <v>26</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>45</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>60.12520072360491</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2.275595138888889</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>8.764705882352942</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-5.474326926398019</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>40.07417338763825</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>15.79631395980089</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>14.50449079323319</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>13.61299847495433</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>13.20051977274331</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>12.54213281865805</v>
       </c>
     </row>
